--- a/PLANTILLAS APLICATIVO/ALCALDIAS.xlsx
+++ b/PLANTILLAS APLICATIVO/ALCALDIAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Documents\GrupoEvoluciona\archivos excel\excel\PLANTILLAS APLICATIVO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC7A39B-A7EB-401A-AAF3-60CEECA27265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04CA0F5-2441-4404-BB93-85C4D09D88D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ambiental" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
   <si>
     <t>NOMBRE DEL MUNICIPIO</t>
   </si>
@@ -296,12 +296,6 @@
   <si>
     <t>Organizaciones Religiosas Por Municipio</t>
   </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
 </sst>
 </file>
 
@@ -557,11 +551,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -572,6 +561,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -819,9 +813,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="14.5">
       <c r="A5" s="3" t="s">
@@ -878,9 +870,7 @@
       <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
@@ -899,9 +889,7 @@
       <c r="D8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="6" t="s">
         <v>14</v>
       </c>
@@ -26327,7 +26315,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -26337,7 +26327,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="28" t="s">
@@ -26349,11 +26339,11 @@
       <c r="D1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="28" t="s">
         <v>70</v>
       </c>
@@ -26368,7 +26358,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="29">
-      <c r="A2" s="34"/>
+      <c r="A2" s="31"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="3" t="s">
@@ -26389,19 +26379,19 @@
       <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="14.5">
-      <c r="A3" s="35"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="19" t="s">
         <v>78</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="14.5">
       <c r="A4" s="27"/>
